--- a/data/Data_DB_w4111.xlsx
+++ b/data/Data_DB_w4111.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14660" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Stadium" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4916" uniqueCount="1740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4913" uniqueCount="1740">
   <si>
     <t>name</t>
   </si>
@@ -5611,9 +5611,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5877,43 +5879,43 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>100</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
         <v>42</v>
@@ -5921,45 +5923,34 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5972,7 +5963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
